--- a/conf-core/src/test/resources/dataloader/slots-import-creation-fails.xlsx
+++ b/conf-core/src/test/resources/dataloader/slots-import-creation-fails.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\ESS\Documents\Import-slots-test\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\ess-git\ccdb\conf-core\src\test\resources\dataloader\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="104">
   <si>
     <t>Version</t>
   </si>
@@ -175,9 +175,6 @@
   </si>
   <si>
     <t>Slot4</t>
-  </si>
-  <si>
-    <t>CREATE RELATION</t>
   </si>
   <si>
     <t>POWERS</t>
@@ -242,9 +239,6 @@
 IMPORT_TEST_5</t>
   </si>
   <si>
-    <t>INSTALL</t>
-  </si>
-  <si>
     <t>Required install missing</t>
   </si>
   <si>
@@ -324,13 +318,28 @@
   </si>
   <si>
     <t>BPM2-01</t>
+  </si>
+  <si>
+    <t>Help</t>
+  </si>
+  <si>
+    <t>https://ccdb.esss.lu.se/resources/help/ccdb_conventions.pdf</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>CREATE RELATIONSHIP</t>
+  </si>
+  <si>
+    <t>INSTALL DEVICE</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -342,6 +351,14 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -448,10 +465,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -468,6 +486,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -484,7 +503,8 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -787,15 +807,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K78"/>
+  <dimension ref="A1:K79"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D37" sqref="D37"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="30.7109375" defaultRowHeight="21.95" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.7109375" style="3" customWidth="1"/>
+    <col min="1" max="1" width="21" style="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.85546875" customWidth="1"/>
     <col min="5" max="5" width="33.42578125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="30.7109375" style="3"/>
@@ -804,7 +822,9 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1"/>
+      <c r="A1" s="1" t="s">
+        <v>101</v>
+      </c>
       <c r="B1" t="s">
         <v>15</v>
       </c>
@@ -870,74 +890,68 @@
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="21.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="8" spans="1:11" ht="21.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="10" t="s">
+    <row r="7" spans="1:11" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="21.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="9" spans="1:11" ht="21.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="12" t="s">
+      <c r="B9" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="13"/>
-      <c r="D8" s="13"/>
-      <c r="E8" s="13"/>
-      <c r="F8" s="14"/>
-      <c r="G8" s="12" t="s">
+      <c r="C9" s="14"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="15"/>
+      <c r="G9" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="H8" s="13"/>
-      <c r="I8" s="12" t="s">
+      <c r="H9" s="14"/>
+      <c r="I9" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="J8" s="13"/>
-      <c r="K8" s="10" t="s">
+      <c r="J9" s="14"/>
+      <c r="K9" s="11" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="21.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="11"/>
-      <c r="B9" s="2" t="s">
+    <row r="10" spans="1:11" ht="21.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="12"/>
+      <c r="B10" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="C10" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="2" t="s">
+      <c r="D10" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E9" s="2" t="s">
+      <c r="E10" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F9" s="2" t="s">
+      <c r="F10" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="G9" s="2" t="s">
+      <c r="G10" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="H9" s="2" t="s">
+      <c r="H10" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="I9" s="2" t="s">
+      <c r="I10" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="J9" s="2" t="s">
+      <c r="J10" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="K9" s="11"/>
-    </row>
-    <row r="10" spans="1:11" s="3" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>81</v>
-      </c>
+      <c r="K10" s="12"/>
     </row>
     <row r="11" spans="1:11" s="3" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
@@ -947,10 +961,10 @@
         <v>23</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>56</v>
+        <v>30</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
     </row>
     <row r="12" spans="1:11" s="3" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -961,13 +975,10 @@
         <v>23</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="F12" s="3" t="s">
-        <v>56</v>
+        <v>80</v>
       </c>
     </row>
     <row r="13" spans="1:11" s="3" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -978,16 +989,16 @@
         <v>23</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" s="3" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
         <v>25</v>
       </c>
@@ -995,30 +1006,27 @@
         <v>23</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>85</v>
+        <v>60</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>82</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" s="3" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
         <v>25</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="D15" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="E15" s="4" t="s">
-        <v>86</v>
+        <v>23</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>83</v>
       </c>
       <c r="F15" s="3" t="s">
         <v>30</v>
@@ -1032,36 +1040,36 @@
         <v>24</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D16" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" s="3" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="D17" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="E16" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="F16" s="3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="B17" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D17" s="4" t="s">
-        <v>30</v>
-      </c>
       <c r="E17" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="G17" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="H17" s="3" t="s">
-        <v>41</v>
+        <v>85</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="18" spans="1:11" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -1069,16 +1077,16 @@
         <v>39</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E18" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="G18" s="3" t="s">
         <v>86</v>
-      </c>
-      <c r="G18" s="3" t="s">
-        <v>89</v>
       </c>
       <c r="H18" s="3" t="s">
         <v>41</v>
@@ -1086,7 +1094,7 @@
     </row>
     <row r="19" spans="1:11" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="B19" s="4" t="s">
         <v>24</v>
@@ -1095,74 +1103,79 @@
         <v>31</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="F19" t="s">
-        <v>30</v>
-      </c>
-      <c r="I19" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="J19" t="s">
+        <v>84</v>
+      </c>
+      <c r="G19" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="H19" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="F20" t="s">
+        <v>30</v>
+      </c>
+      <c r="I20" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="J20" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="20" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="B20" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="D20" s="3" t="s">
+    <row r="21" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="D21" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="E20" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="F20" t="s">
-        <v>30</v>
-      </c>
-      <c r="K20" s="3" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="6"/>
-      <c r="B21" s="4"/>
-      <c r="C21" s="3"/>
-      <c r="D21" s="3"/>
       <c r="E21" s="4" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" s="3" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D22" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="E22" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="G22" s="4"/>
-      <c r="I22" s="4"/>
-      <c r="K22" s="4"/>
+        <v>84</v>
+      </c>
+      <c r="F21" t="s">
+        <v>30</v>
+      </c>
+      <c r="K21" s="3" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="6"/>
+      <c r="B22" s="4"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="4" t="s">
+        <v>93</v>
+      </c>
     </row>
     <row r="23" spans="1:11" s="3" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="B23" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D23" s="7"/>
+      <c r="D23" s="3" t="s">
+        <v>26</v>
+      </c>
       <c r="E23" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G23" s="4"/>
       <c r="I23" s="4"/>
@@ -1172,11 +1185,12 @@
       <c r="A24" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="B24" s="3" t="s">
+      <c r="B24" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="D24" s="3" t="s">
-        <v>29</v>
+      <c r="D24" s="7"/>
+      <c r="E24" s="3" t="s">
+        <v>28</v>
       </c>
       <c r="G24" s="4"/>
       <c r="I24" s="4"/>
@@ -1186,18 +1200,15 @@
       <c r="A25" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="B25" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="D25" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="E25" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="F25" s="3" t="s">
-        <v>30</v>
-      </c>
+      <c r="B25" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="G25" s="4"/>
+      <c r="I25" s="4"/>
+      <c r="K25" s="4"/>
     </row>
     <row r="26" spans="1:11" s="3" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="6" t="s">
@@ -1206,14 +1217,11 @@
       <c r="B26" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="C26" s="3" t="s">
-        <v>44</v>
-      </c>
       <c r="D26" s="4" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="F26" s="3" t="s">
         <v>30</v>
@@ -1227,13 +1235,16 @@
         <v>24</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>80</v>
+        <v>44</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>63</v>
+        <v>51</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>34</v>
+        <v>45</v>
+      </c>
+      <c r="F27" s="3" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="28" spans="1:11" s="3" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -1244,16 +1255,13 @@
         <v>24</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>31</v>
+        <v>62</v>
       </c>
       <c r="E28" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="F28" s="3" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
     </row>
     <row r="29" spans="1:11" s="3" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -1261,36 +1269,36 @@
         <v>25</v>
       </c>
       <c r="B29" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="D29" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="E29" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="F29" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" s="3" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B30" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="D29" s="4" t="s">
+      <c r="D30" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="E29" s="4" t="s">
+      <c r="E30" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="F29" s="4" t="s">
+      <c r="F30" s="4" t="s">
         <v>31</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="B30" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="D30" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="E30" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="G30" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="H30" s="3" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="31" spans="1:11" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -1298,18 +1306,20 @@
         <v>39</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E31" s="4" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="G31" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="H31" s="3"/>
+        <v>89</v>
+      </c>
+      <c r="H31" s="3" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="32" spans="1:11" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="6" t="s">
@@ -1322,11 +1332,12 @@
         <v>30</v>
       </c>
       <c r="E32" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="H32" s="3" t="s">
-        <v>79</v>
-      </c>
+        <v>46</v>
+      </c>
+      <c r="G32" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="H32" s="3"/>
     </row>
     <row r="33" spans="1:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="6" t="s">
@@ -1339,13 +1350,10 @@
         <v>30</v>
       </c>
       <c r="E33" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="G33" s="3" t="s">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="H33" s="3" t="s">
-        <v>42</v>
+        <v>77</v>
       </c>
     </row>
     <row r="34" spans="1:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -1353,19 +1361,19 @@
         <v>39</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E34" s="4" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="G34" s="3" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="H34" s="3" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
     </row>
     <row r="35" spans="1:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -1379,10 +1387,10 @@
         <v>31</v>
       </c>
       <c r="E35" s="4" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="G35" s="3" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="H35" s="3" t="s">
         <v>48</v>
@@ -1399,10 +1407,10 @@
         <v>31</v>
       </c>
       <c r="E36" s="4" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="G36" s="3" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="H36" s="3" t="s">
         <v>48</v>
@@ -1413,19 +1421,19 @@
         <v>39</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E37" s="4" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="G37" s="3" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="H37" s="3" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
     </row>
     <row r="38" spans="1:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -1439,38 +1447,38 @@
         <v>30</v>
       </c>
       <c r="E38" s="4" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G38" s="3" t="s">
         <v>92</v>
       </c>
       <c r="H38" s="3" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
     </row>
     <row r="39" spans="1:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="6" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="E39" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="F39" t="s">
-        <v>30</v>
-      </c>
-      <c r="J39" t="s">
-        <v>33</v>
+        <v>30</v>
+      </c>
+      <c r="E39" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="G39" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="H39" s="3" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="40" spans="1:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="6" t="s">
-        <v>52</v>
+        <v>102</v>
       </c>
       <c r="B40" s="4" t="s">
         <v>24</v>
@@ -1479,18 +1487,18 @@
         <v>31</v>
       </c>
       <c r="E40" s="3" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F40" t="s">
         <v>30</v>
       </c>
-      <c r="I40" s="3" t="s">
-        <v>53</v>
+      <c r="J40" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="41" spans="1:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="6" t="s">
-        <v>52</v>
+        <v>102</v>
       </c>
       <c r="B41" s="4" t="s">
         <v>24</v>
@@ -1499,21 +1507,18 @@
         <v>31</v>
       </c>
       <c r="E41" s="3" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="F41" t="s">
         <v>30</v>
       </c>
       <c r="I41" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="J41" s="3" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="42" spans="1:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="6" t="s">
-        <v>52</v>
+        <v>102</v>
       </c>
       <c r="B42" s="4" t="s">
         <v>24</v>
@@ -1522,21 +1527,21 @@
         <v>31</v>
       </c>
       <c r="E42" s="3" t="s">
-        <v>96</v>
+        <v>57</v>
       </c>
       <c r="F42" t="s">
         <v>30</v>
       </c>
       <c r="I42" s="3" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="J42" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="43" spans="1:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="6" t="s">
-        <v>52</v>
+        <v>102</v>
       </c>
       <c r="B43" s="4" t="s">
         <v>24</v>
@@ -1545,56 +1550,62 @@
         <v>31</v>
       </c>
       <c r="E43" s="3" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="F43" t="s">
         <v>30</v>
       </c>
       <c r="I43" s="3" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="J43" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="44" spans="1:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="B44" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D44" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="E44" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="F44" t="s">
+        <v>30</v>
+      </c>
+      <c r="I44" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="B44" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D44" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="E44" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="F44" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="I44" s="3" t="s">
-        <v>57</v>
-      </c>
       <c r="J44" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="45" spans="1:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="6" t="s">
-        <v>25</v>
+        <v>102</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="C45" s="3" t="s">
-        <v>80</v>
+        <v>23</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="E45" s="3" t="s">
-        <v>64</v>
+        <v>61</v>
+      </c>
+      <c r="F45" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="I45" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="J45" s="3" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="46" spans="1:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -1604,17 +1615,14 @@
       <c r="B46" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="C46" t="s">
-        <v>80</v>
+      <c r="C46" s="3" t="s">
+        <v>78</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="E46" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="F46" s="3" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
     </row>
     <row r="47" spans="1:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -1625,19 +1633,19 @@
         <v>24</v>
       </c>
       <c r="C47" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="E47" s="3" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="F47" s="3" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="48" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="6" t="s">
         <v>25</v>
       </c>
@@ -1645,113 +1653,126 @@
         <v>24</v>
       </c>
       <c r="C48" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D48" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="E48" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="F48" s="3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="A49" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B49" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C49" t="s">
+        <v>78</v>
+      </c>
+      <c r="D49" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="E49" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="E48" s="3" t="s">
+      <c r="F49" s="8" t="s">
         <v>71</v>
-      </c>
-      <c r="F48" s="8" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="49" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="B49" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="C49" t="s">
-        <v>80</v>
-      </c>
-      <c r="D49" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="E49" t="s">
-        <v>74</v>
-      </c>
-      <c r="F49" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="50" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="6" t="s">
-        <v>73</v>
+        <v>103</v>
       </c>
       <c r="B50" s="4" t="s">
         <v>24</v>
       </c>
       <c r="C50" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E50" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="F50" t="s">
         <v>30</v>
-      </c>
-      <c r="K50" s="3" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="51" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="B51" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C51" t="s">
+        <v>78</v>
+      </c>
+      <c r="D51" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E51" t="s">
         <v>73</v>
       </c>
-      <c r="B51" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="C51" t="s">
-        <v>80</v>
-      </c>
-      <c r="D51" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="E51" t="s">
-        <v>76</v>
-      </c>
       <c r="F51" t="s">
         <v>30</v>
       </c>
       <c r="K51" s="3" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="52" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="6" t="s">
-        <v>73</v>
+        <v>103</v>
       </c>
       <c r="B52" s="4" t="s">
         <v>24</v>
       </c>
       <c r="C52" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D52" s="3" t="s">
         <v>33</v>
       </c>
       <c r="E52" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="F52" t="s">
         <v>30</v>
       </c>
       <c r="K52" s="3" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="53" spans="1:11" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="6"/>
-      <c r="B53" s="4"/>
-      <c r="D53" s="3"/>
-      <c r="E53" s="3"/>
-      <c r="F53" s="3"/>
+        <v>97</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="B53" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C53" t="s">
+        <v>78</v>
+      </c>
+      <c r="D53" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="E53" t="s">
+        <v>75</v>
+      </c>
+      <c r="F53" t="s">
+        <v>30</v>
+      </c>
+      <c r="K53" s="3" t="s">
+        <v>98</v>
+      </c>
     </row>
     <row r="54" spans="1:11" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="6"/>
@@ -1765,6 +1786,7 @@
       <c r="B55" s="4"/>
       <c r="D55" s="3"/>
       <c r="E55" s="3"/>
+      <c r="F55" s="3"/>
     </row>
     <row r="56" spans="1:11" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="6"/>
@@ -1789,7 +1811,6 @@
       <c r="B59" s="4"/>
       <c r="D59" s="3"/>
       <c r="E59" s="3"/>
-      <c r="F59" s="3"/>
     </row>
     <row r="60" spans="1:11" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="6"/>
@@ -1803,19 +1824,20 @@
       <c r="B61" s="4"/>
       <c r="D61" s="3"/>
       <c r="E61" s="3"/>
+      <c r="F61" s="3"/>
     </row>
     <row r="62" spans="1:11" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="6"/>
       <c r="B62" s="4"/>
       <c r="D62" s="3"/>
       <c r="E62" s="3"/>
-      <c r="H62" s="3"/>
     </row>
     <row r="63" spans="1:11" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="6"/>
       <c r="B63" s="4"/>
       <c r="D63" s="3"/>
       <c r="E63" s="3"/>
+      <c r="H63" s="3"/>
     </row>
     <row r="64" spans="1:11" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="6"/>
@@ -1823,18 +1845,18 @@
       <c r="D64" s="3"/>
       <c r="E64" s="3"/>
     </row>
-    <row r="65" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="6"/>
       <c r="B65" s="4"/>
       <c r="D65" s="3"/>
       <c r="E65" s="3"/>
-      <c r="F65" s="9"/>
-    </row>
-    <row r="66" spans="1:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="66" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A66" s="6"/>
       <c r="B66" s="4"/>
       <c r="D66" s="3"/>
       <c r="E66" s="3"/>
+      <c r="F66" s="9"/>
     </row>
     <row r="67" spans="1:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="6"/>
@@ -1877,7 +1899,6 @@
       <c r="B73" s="4"/>
       <c r="D73" s="3"/>
       <c r="E73" s="3"/>
-      <c r="J73" s="3"/>
     </row>
     <row r="74" spans="1:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="6"/>
@@ -1891,6 +1912,7 @@
       <c r="B75" s="4"/>
       <c r="D75" s="3"/>
       <c r="E75" s="3"/>
+      <c r="J75" s="3"/>
     </row>
     <row r="76" spans="1:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="6"/>
@@ -1910,27 +1932,36 @@
       <c r="D78" s="3"/>
       <c r="E78" s="3"/>
     </row>
+    <row r="79" spans="1:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A79" s="6"/>
+      <c r="B79" s="4"/>
+      <c r="D79" s="3"/>
+      <c r="E79" s="3"/>
+    </row>
   </sheetData>
   <mergeCells count="5">
-    <mergeCell ref="K8:K9"/>
-    <mergeCell ref="I8:J8"/>
-    <mergeCell ref="B8:F8"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="K9:K10"/>
+    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="B9:F9"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="G9:H9"/>
   </mergeCells>
   <dataValidations count="4">
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Lorem Ipsum" sqref="A8:K9"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I10:I1048576">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Lorem Ipsum" sqref="A9:K10"/>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I11:I1048576">
       <formula1>"CONTAINS,CONTAINED IN,CONTROLS,CONTROLLED BY,POWERS,POWERED BY"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Lorem Ipsum" sqref="B10:B1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Lorem Ipsum" sqref="B11:B1048576">
       <formula1>"CONTAINER,SLOT"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A10:A1048576">
-      <formula1>"CREATE ENTITY,UPDATE ENTITY,DELETE ENTITY,CREATE PROPERTY,UPDATE PROPERTY,DELETE PROPERTY,CREATE RELATION,UPDATE RELATION,DELETE RELATION,INSTALL,UNINSTALL"</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A11:A1048576">
+      <formula1>"CREATE ENTITY,UPDATE ENTITY,DELETE ENTITY,CREATE PROPERTY,UPDATE PROPERTY,DELETE PROPERTY,CREATE RELATIONSHIP,UPDATE RELATIONSHIP,DELETE RELATIONSHIP,INSTALL DEVICE,UNINSTALL DEVICE"</formula1>
     </dataValidation>
   </dataValidations>
+  <hyperlinks>
+    <hyperlink ref="B7" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
--- a/conf-core/src/test/resources/dataloader/slots-import-creation-fails.xlsx
+++ b/conf-core/src/test/resources/dataloader/slots-import-creation-fails.xlsx
@@ -234,11 +234,6 @@
     <t>Path not found</t>
   </si>
   <si>
-    <t>IMPORT_TEST_2
-IMPORT_TEST_3
-IMPORT_TEST_5</t>
-  </si>
-  <si>
     <t>Required install missing</t>
   </si>
   <si>
@@ -333,6 +328,9 @@
   </si>
   <si>
     <t>INSTALL DEVICE</t>
+  </si>
+  <si>
+    <t>IMPORT_TEST_2&gt;&gt;IMPORT_TEST_3&gt;&gt;IMPORT_TEST_5</t>
   </si>
 </sst>
 </file>
@@ -480,13 +478,11 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -823,7 +819,7 @@
   <sheetData>
     <row r="1" spans="1:11" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B1" t="s">
         <v>15</v>
@@ -892,10 +888,10 @@
     </row>
     <row r="7" spans="1:11" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B7" s="9" t="s">
         <v>99</v>
-      </c>
-      <c r="B7" s="10" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="21.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
@@ -964,7 +960,7 @@
         <v>30</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="12" spans="1:11" s="3" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -978,7 +974,7 @@
         <v>55</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="13" spans="1:11" s="3" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -992,7 +988,7 @@
         <v>59</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F13" s="3" t="s">
         <v>55</v>
@@ -1009,7 +1005,7 @@
         <v>60</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F14" s="3" t="s">
         <v>59</v>
@@ -1026,7 +1022,7 @@
         <v>60</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F15" s="3" t="s">
         <v>30</v>
@@ -1040,13 +1036,13 @@
         <v>24</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D16" s="4" t="s">
         <v>31</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F16" s="3" t="s">
         <v>30</v>
@@ -1060,13 +1056,13 @@
         <v>24</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D17" s="4" t="s">
         <v>33</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F17" s="3" t="s">
         <v>30</v>
@@ -1083,10 +1079,10 @@
         <v>30</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H18" s="3" t="s">
         <v>41</v>
@@ -1103,10 +1099,10 @@
         <v>31</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H19" s="3" t="s">
         <v>41</v>
@@ -1114,7 +1110,7 @@
     </row>
     <row r="20" spans="1:11" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="6" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B20" s="4" t="s">
         <v>24</v>
@@ -1123,7 +1119,7 @@
         <v>31</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F20" t="s">
         <v>30</v>
@@ -1137,25 +1133,25 @@
     </row>
     <row r="21" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="6" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B21" s="4" t="s">
         <v>24</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D21" s="3" t="s">
         <v>31</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F21" t="s">
         <v>30</v>
       </c>
       <c r="K21" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="22" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1164,7 +1160,7 @@
       <c r="C22" s="3"/>
       <c r="D22" s="3"/>
       <c r="E22" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="23" spans="1:11" s="3" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -1255,7 +1251,7 @@
         <v>24</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D28" s="4" t="s">
         <v>62</v>
@@ -1272,7 +1268,7 @@
         <v>24</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D29" s="4" t="s">
         <v>31</v>
@@ -1315,7 +1311,7 @@
         <v>40</v>
       </c>
       <c r="G31" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H31" s="3" t="s">
         <v>41</v>
@@ -1335,7 +1331,7 @@
         <v>46</v>
       </c>
       <c r="G32" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H32" s="3"/>
     </row>
@@ -1350,10 +1346,10 @@
         <v>30</v>
       </c>
       <c r="E33" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="H33" s="3" t="s">
         <v>76</v>
-      </c>
-      <c r="H33" s="3" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="34" spans="1:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -1370,7 +1366,7 @@
         <v>43</v>
       </c>
       <c r="G34" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H34" s="3" t="s">
         <v>42</v>
@@ -1390,7 +1386,7 @@
         <v>47</v>
       </c>
       <c r="G35" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H35" s="3" t="s">
         <v>48</v>
@@ -1410,7 +1406,7 @@
         <v>49</v>
       </c>
       <c r="G36" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H36" s="3" t="s">
         <v>48</v>
@@ -1430,7 +1426,7 @@
         <v>40</v>
       </c>
       <c r="G37" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H37" s="3" t="s">
         <v>48</v>
@@ -1450,7 +1446,7 @@
         <v>50</v>
       </c>
       <c r="G38" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H38" s="3" t="s">
         <v>41</v>
@@ -1470,7 +1466,7 @@
         <v>49</v>
       </c>
       <c r="G39" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H39" s="3" t="s">
         <v>48</v>
@@ -1478,7 +1474,7 @@
     </row>
     <row r="40" spans="1:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="6" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B40" s="4" t="s">
         <v>24</v>
@@ -1498,7 +1494,7 @@
     </row>
     <row r="41" spans="1:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="6" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B41" s="4" t="s">
         <v>24</v>
@@ -1518,7 +1514,7 @@
     </row>
     <row r="42" spans="1:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="6" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B42" s="4" t="s">
         <v>24</v>
@@ -1541,7 +1537,7 @@
     </row>
     <row r="43" spans="1:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="6" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B43" s="4" t="s">
         <v>24</v>
@@ -1550,7 +1546,7 @@
         <v>31</v>
       </c>
       <c r="E43" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F43" t="s">
         <v>30</v>
@@ -1564,7 +1560,7 @@
     </row>
     <row r="44" spans="1:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="6" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B44" s="4" t="s">
         <v>24</v>
@@ -1573,7 +1569,7 @@
         <v>31</v>
       </c>
       <c r="E44" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F44" t="s">
         <v>30</v>
@@ -1587,7 +1583,7 @@
     </row>
     <row r="45" spans="1:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="6" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B45" s="4" t="s">
         <v>23</v>
@@ -1616,7 +1612,7 @@
         <v>24</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D46" s="3" t="s">
         <v>62</v>
@@ -1633,7 +1629,7 @@
         <v>24</v>
       </c>
       <c r="C47" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D47" s="3" t="s">
         <v>64</v>
@@ -1653,7 +1649,7 @@
         <v>24</v>
       </c>
       <c r="C48" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D48" s="3" t="s">
         <v>67</v>
@@ -1665,7 +1661,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="49" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="6" t="s">
         <v>25</v>
       </c>
@@ -1673,7 +1669,7 @@
         <v>24</v>
       </c>
       <c r="C49" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D49" s="3" t="s">
         <v>69</v>
@@ -1681,25 +1677,25 @@
       <c r="E49" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="F49" s="8" t="s">
-        <v>71</v>
+      <c r="F49" s="10" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="50" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="6" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B50" s="4" t="s">
         <v>24</v>
       </c>
       <c r="C50" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D50" s="3" t="s">
         <v>33</v>
       </c>
       <c r="E50" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F50" t="s">
         <v>30</v>
@@ -1707,71 +1703,71 @@
     </row>
     <row r="51" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="6" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B51" s="4" t="s">
         <v>24</v>
       </c>
       <c r="C51" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D51" s="3" t="s">
         <v>31</v>
       </c>
       <c r="E51" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F51" t="s">
         <v>30</v>
       </c>
       <c r="K51" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="52" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="6" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B52" s="4" t="s">
         <v>24</v>
       </c>
       <c r="C52" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D52" s="3" t="s">
         <v>33</v>
       </c>
       <c r="E52" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F52" t="s">
         <v>30</v>
       </c>
       <c r="K52" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="53" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="6" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B53" s="4" t="s">
         <v>24</v>
       </c>
       <c r="C53" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D53" s="3" t="s">
         <v>33</v>
       </c>
       <c r="E53" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F53" t="s">
         <v>30</v>
       </c>
       <c r="K53" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="54" spans="1:11" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -1856,7 +1852,7 @@
       <c r="B66" s="4"/>
       <c r="D66" s="3"/>
       <c r="E66" s="3"/>
-      <c r="F66" s="9"/>
+      <c r="F66" s="8"/>
     </row>
     <row r="67" spans="1:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="6"/>
